--- a/data/trans_bre/P19-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P19-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,51%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,94%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,28; 26,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,12; 13,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,47; 19,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,11; 16,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,37; 215,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,53; 69,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,51; 109,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,8; 91,15</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,81%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,46; 11,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,96; 13,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 11,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,51; 12,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,6; 56,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,65; 70,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 42,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,77; 66,21</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,37%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,18; 10,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,41; 10,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,91; 11,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 8,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,1; 46,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,53; 48,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,23; 44,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 43,1</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,16%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 10,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,96; 7,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,55; 8,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,55; 5,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 40,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,13; 32,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,65; 30,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,81; 17,97</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,5%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,08%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,44%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,07; 10,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,16; 9,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 8,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,68; 10,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,52; 44,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,51; 41,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 31,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,32; 38,96</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,01%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,14; 8,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,25; 7,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,11; 7,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,79; 6,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,76; 35,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,91; 32,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,24; 28,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,52; 27,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,8</t>
+          <t>8,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,27</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>6,75</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>84,51%</t>
+          <t>36,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>32,81%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>34,23%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>29,8%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,28; 26,44</t>
+          <t>3,47; 12,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 13,53</t>
+          <t>2,56; 12,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 19,72</t>
+          <t>0,87; 10,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 16,87</t>
+          <t>2,29; 11,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,37; 215,35</t>
+          <t>14,29; 63,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-35,53; 69,76</t>
+          <t>10,12; 63,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 109,04</t>
+          <t>2,85; 42,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,8; 91,15</t>
+          <t>8,93; 58,49</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,88</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,46</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>7,46</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>8,28</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
+          <t>26,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>39,15%</t>
+          <t>27,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>26,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>42,76%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 11,84</t>
+          <t>2,18; 10,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 13,72</t>
+          <t>2,41; 10,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 11,03</t>
+          <t>2,91; 11,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 12,05</t>
+          <t>2,17; 17,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,6; 56,31</t>
+          <t>8,1; 46,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,65; 70,21</t>
+          <t>9,53; 48,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 42,24</t>
+          <t>9,23; 44,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,77; 66,21</t>
+          <t>8,67; 144,52</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,46</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>-9,06%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 10,71</t>
+          <t>0,25; 10,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 10,66</t>
+          <t>-1,96; 7,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 11,84</t>
+          <t>-0,55; 8,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 8,61</t>
+          <t>-17,99; 7,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,1; 46,75</t>
+          <t>0,34; 40,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,53; 48,83</t>
+          <t>-7,13; 32,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,23; 44,7</t>
+          <t>-1,65; 30,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 43,1</t>
+          <t>-54,34; 25,33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>24,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>22,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-3,16%</t>
+          <t>13,28%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 10,42</t>
+          <t>2,07; 10,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 7,53</t>
+          <t>2,16; 9,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 8,64</t>
+          <t>-0,13; 8,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 5,43</t>
+          <t>-3,43; 8,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 40,89</t>
+          <t>7,52; 44,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 32,08</t>
+          <t>7,51; 41,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 30,57</t>
+          <t>-0,32; 31,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-38,81; 17,97</t>
+          <t>-10,59; 31,84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>24,5%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>22,08%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>18,99%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,07; 10,02</t>
+          <t>4,14; 8,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,16; 9,85</t>
+          <t>3,25; 7,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 8,07</t>
+          <t>3,11; 7,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 10,18</t>
+          <t>-0,47; 10,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,52; 44,4</t>
+          <t>15,76; 35,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,51; 41,52</t>
+          <t>12,91; 32,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 31,33</t>
+          <t>10,24; 28,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,32; 38,96</t>
+          <t>-0,82; 47,5</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>6,47</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,66</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,48</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>4,2</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>26,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>22,96%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>18,85%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>16,01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>4,14; 8,52</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>3,25; 7,72</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3,11; 7,8</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,79; 6,67</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>15,76; 35,79</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>12,91; 32,72</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>10,24; 28,23</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>3,52; 27,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P19-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 12,94</t>
+          <t>3,69; 12,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 12,52</t>
+          <t>2,48; 11,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 10,97</t>
+          <t>0,62; 10,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,29; 11,54</t>
+          <t>1,67; 11,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,29; 63,08</t>
+          <t>14,31; 63,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,12; 63,6</t>
+          <t>10,27; 58,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 42,69</t>
+          <t>1,69; 40,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,93; 58,49</t>
+          <t>6,59; 58,17</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 10,71</t>
+          <t>1,84; 10,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,41; 10,66</t>
+          <t>2,77; 10,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,91; 11,84</t>
+          <t>3,04; 11,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 17,3</t>
+          <t>1,48; 17,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,1; 46,75</t>
+          <t>6,75; 45,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,53; 48,83</t>
+          <t>10,52; 50,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,23; 44,7</t>
+          <t>10,06; 42,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,67; 144,52</t>
+          <t>5,79; 149,34</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 10,42</t>
+          <t>-0,06; 10,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 7,53</t>
+          <t>-2,0; 7,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 8,64</t>
+          <t>-0,81; 9,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 7,81</t>
+          <t>-18,96; 7,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 40,89</t>
+          <t>-0,56; 41,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 32,08</t>
+          <t>-6,68; 31,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 30,57</t>
+          <t>-2,38; 31,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-54,34; 25,33</t>
+          <t>-54,65; 25,3</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 10,02</t>
+          <t>2,2; 10,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,16; 9,85</t>
+          <t>1,11; 9,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 8,07</t>
+          <t>0,32; 8,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 8,49</t>
+          <t>-4,42; 8,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 44,4</t>
+          <t>7,91; 43,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,51; 41,52</t>
+          <t>3,26; 40,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 31,33</t>
+          <t>0,77; 31,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 31,84</t>
+          <t>-13,31; 30,38</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,52</t>
+          <t>4,39; 8,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,72</t>
+          <t>3,34; 8,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,11; 7,8</t>
+          <t>3,17; 7,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 10,03</t>
+          <t>-0,15; 10,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,76; 35,79</t>
+          <t>17,09; 35,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,91; 32,72</t>
+          <t>12,85; 34,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,24; 28,23</t>
+          <t>10,38; 28,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 47,5</t>
+          <t>0,62; 49,22</t>
         </is>
       </c>
     </row>
